--- a/Mineral Plot/data/masterFile.xlsx
+++ b/Mineral Plot/data/masterFile.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53463757f395da8/Documents/GitHub/py-MineralPlot/Mineral Plot/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d53463757f395da8/Documents/GitHub/py-VolcChem/Mineral Plot/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{A701ACA1-881D-4CE5-AC0B-4341A80A367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E9BC294-9F97-42D0-BD2A-0773BE612B4C}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{A701ACA1-881D-4CE5-AC0B-4341A80A367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3D26EFB-73AA-4463-8F15-F6CE1A2EDD24}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{B924BFE1-702E-40D4-A631-4D39A0578E5F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Author</t>
   </si>
@@ -104,13 +104,16 @@
   </si>
   <si>
     <t>Matrix Glass</t>
+  </si>
+  <si>
+    <t>TOB19-02-gl2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +126,12 @@
       <color theme="1"/>
       <name val="Myriad Pro"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -171,10 +180,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB68048B-1E03-4629-AE3D-9A4589B465F8}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -598,7 +603,62 @@
         <v>100.01000000000002</v>
       </c>
     </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1">
+        <v>77.27</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12.58</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="N3" s="1">
+        <v>3.11</v>
+      </c>
+      <c r="O3" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.11</v>
+      </c>
+      <c r="R3" s="3">
+        <f t="shared" ref="R3" si="0">SUM(G3:Q3)</f>
+        <v>100.00999999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>